--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果表.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果表.xlsx
@@ -881,10 +881,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -983,14 +983,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,47 +1004,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,6 +1034,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1073,7 +1058,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,41 +1117,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1191,13 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,43 +1209,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,19 +1275,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,13 +1311,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,67 +1353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,54 +1437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1515,13 +1467,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,99 +1514,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,52 +1635,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4346,7 +4346,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4755,7 +4755,9 @@
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="68" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="34"/>
@@ -17630,14 +17632,13 @@
       <c r="B552" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D2:D3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果表.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果表.xlsx
@@ -4346,7 +4346,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
